--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/Research/Working Papers/populism-sca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{F5B0688A-F87C-4FDB-842B-7EAB21580365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAC53463-6CF2-48FD-86A5-A5B152E7ADC9}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{F5B0688A-F87C-4FDB-842B-7EAB21580365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02B82C1A-C45F-4169-9640-5796578F31EC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{2412685E-30F5-904E-8DA6-1C1CC88A688D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2568" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="112">
   <si>
     <t>country_name</t>
   </si>
@@ -366,16 +366,16 @@
     <t>populist</t>
   </si>
   <si>
-    <t>fh_pr</t>
-  </si>
-  <si>
-    <t>fh_cl</t>
-  </si>
-  <si>
     <t>v2jupoatck_osp</t>
   </si>
   <si>
     <t>v2excrptps_osp</t>
+  </si>
+  <si>
+    <t>FH_PR</t>
+  </si>
+  <si>
+    <t>FH_CL</t>
   </si>
 </sst>
 </file>
@@ -1206,13 +1206,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D644E499-58AE-A840-9939-AAD0EAFAE5BF}">
-  <dimension ref="A1:V1249"/>
+  <dimension ref="A1:T1249"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D1230" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J1249"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1265,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K1" s="35" t="s">
         <v>9</v>
@@ -1295,10 +1295,10 @@
         <v>76</v>
       </c>
       <c r="S1" s="35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -3048,7 +3048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>11</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>11</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>11</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>11</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>11</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>11</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>11</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="36" t="s">
         <v>13</v>
       </c>
@@ -3601,11 +3601,8 @@
       <c r="T41" s="70">
         <v>5</v>
       </c>
-      <c r="V41" s="40">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41" t="s">
         <v>13</v>
       </c>
@@ -3654,11 +3651,8 @@
       <c r="T42" s="72">
         <v>5</v>
       </c>
-      <c r="V42" s="40">
-        <v>2.141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41" t="s">
         <v>13</v>
       </c>
@@ -3707,11 +3701,8 @@
       <c r="T43" s="72">
         <v>4.333333333333333</v>
       </c>
-      <c r="V43" s="40">
-        <v>2.165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41" t="s">
         <v>13</v>
       </c>
@@ -3760,11 +3751,8 @@
       <c r="T44" s="72">
         <v>3</v>
       </c>
-      <c r="V44" s="40">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41" t="s">
         <v>13</v>
       </c>
@@ -3815,11 +3803,8 @@
       <c r="T45" s="72">
         <v>2</v>
       </c>
-      <c r="V45" s="40">
-        <v>2.7679999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41" t="s">
         <v>13</v>
       </c>
@@ -3872,11 +3857,8 @@
       <c r="T46" s="72">
         <v>2</v>
       </c>
-      <c r="V46" s="40">
-        <v>1.9610000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41" t="s">
         <v>13</v>
       </c>
@@ -3927,11 +3909,8 @@
       <c r="T47" s="72">
         <v>1</v>
       </c>
-      <c r="V47" s="40">
-        <v>1.9650000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
         <v>13</v>
       </c>
@@ -3982,11 +3961,8 @@
       <c r="T48" s="72">
         <v>1</v>
       </c>
-      <c r="V48" s="40">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41" t="s">
         <v>13</v>
       </c>
@@ -4037,11 +4013,8 @@
       <c r="T49" s="72">
         <v>1</v>
       </c>
-      <c r="V49" s="40">
-        <v>2.1120000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41" t="s">
         <v>13</v>
       </c>
@@ -4092,11 +4065,8 @@
       <c r="T50" s="72">
         <v>2</v>
       </c>
-      <c r="V50" s="40">
-        <v>1.891</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41" t="s">
         <v>13</v>
       </c>
@@ -4149,11 +4119,8 @@
       <c r="T51" s="72">
         <v>3</v>
       </c>
-      <c r="V51" s="40">
-        <v>1.974</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="41" t="s">
         <v>13</v>
       </c>
@@ -4204,11 +4171,8 @@
       <c r="T52" s="72">
         <v>3</v>
       </c>
-      <c r="V52" s="40">
-        <v>2.7679999999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41" t="s">
         <v>13</v>
       </c>
@@ -4259,11 +4223,8 @@
       <c r="T53" s="72">
         <v>3</v>
       </c>
-      <c r="V53" s="40">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>13</v>
       </c>
@@ -4314,11 +4275,8 @@
       <c r="T54" s="72">
         <v>3</v>
       </c>
-      <c r="V54" s="40">
-        <v>2.7679999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41" t="s">
         <v>13</v>
       </c>
@@ -4369,11 +4327,8 @@
       <c r="T55" s="72">
         <v>3</v>
       </c>
-      <c r="V55" s="40">
-        <v>3.2160000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41" t="s">
         <v>13</v>
       </c>
@@ -4426,11 +4381,8 @@
       <c r="T56" s="72">
         <v>3</v>
       </c>
-      <c r="V56" s="40">
-        <v>3.2160000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="41" t="s">
         <v>13</v>
       </c>
@@ -4490,11 +4442,8 @@
       <c r="T57" s="72">
         <v>3</v>
       </c>
-      <c r="V57" s="40">
-        <v>1.754</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
         <v>13</v>
       </c>
@@ -4548,11 +4497,8 @@
       <c r="T58" s="72">
         <v>3</v>
       </c>
-      <c r="V58" s="40">
-        <v>2.2080000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41" t="s">
         <v>13</v>
       </c>
@@ -4612,11 +4558,8 @@
       <c r="T59" s="72">
         <v>3</v>
       </c>
-      <c r="V59" s="40">
-        <v>1.0620000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="41" t="s">
         <v>13</v>
       </c>
@@ -4667,11 +4610,8 @@
       <c r="T60" s="72">
         <v>3</v>
       </c>
-      <c r="V60" s="40">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>13</v>
       </c>
@@ -4733,11 +4673,8 @@
       <c r="T61" s="72">
         <v>2</v>
       </c>
-      <c r="V61" s="40">
-        <v>3.1080000000000001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41" t="s">
         <v>13</v>
       </c>
@@ -4790,11 +4727,8 @@
       <c r="T62" s="72">
         <v>3</v>
       </c>
-      <c r="V62" s="40">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>13</v>
       </c>
@@ -4856,11 +4790,8 @@
       <c r="T63" s="72">
         <v>3</v>
       </c>
-      <c r="V63" s="40">
-        <v>2.407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>13</v>
       </c>
@@ -4922,11 +4853,8 @@
       <c r="T64" s="72">
         <v>2</v>
       </c>
-      <c r="V64" s="40">
-        <v>2.7679999999999998</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>13</v>
       </c>
@@ -4988,11 +4916,8 @@
       <c r="T65" s="72">
         <v>2</v>
       </c>
-      <c r="V65" s="40">
-        <v>3.1080000000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41" t="s">
         <v>13</v>
       </c>
@@ -5054,11 +4979,8 @@
       <c r="T66" s="72">
         <v>2</v>
       </c>
-      <c r="V66" s="40">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>13</v>
       </c>
@@ -5120,11 +5042,8 @@
       <c r="T67" s="72">
         <v>2</v>
       </c>
-      <c r="V67" s="40">
-        <v>3.2160000000000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>13</v>
       </c>
@@ -5186,11 +5105,8 @@
       <c r="T68" s="72">
         <v>2</v>
       </c>
-      <c r="V68" s="40">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>13</v>
       </c>
@@ -5252,11 +5168,8 @@
       <c r="T69" s="72">
         <v>2</v>
       </c>
-      <c r="V69" s="40">
-        <v>2.6619999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>13</v>
       </c>
@@ -5318,11 +5231,8 @@
       <c r="T70" s="72">
         <v>2</v>
       </c>
-      <c r="V70" s="40">
-        <v>2.1840000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>13</v>
       </c>
@@ -5384,11 +5294,8 @@
       <c r="T71" s="72">
         <v>2</v>
       </c>
-      <c r="V71" s="40">
-        <v>3.2160000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>13</v>
       </c>
@@ -5450,11 +5357,8 @@
       <c r="T72" s="72">
         <v>2</v>
       </c>
-      <c r="V72" s="40">
-        <v>2.1110000000000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>13</v>
       </c>
@@ -5516,11 +5420,8 @@
       <c r="T73" s="72">
         <v>2</v>
       </c>
-      <c r="V73" s="40">
-        <v>3.399</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>13</v>
       </c>
@@ -5582,11 +5483,8 @@
       <c r="T74" s="72">
         <v>2</v>
       </c>
-      <c r="V74" s="40">
-        <v>1.754</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41" t="s">
         <v>13</v>
       </c>
@@ -5648,11 +5546,8 @@
       <c r="T75" s="72">
         <v>2</v>
       </c>
-      <c r="V75" s="40">
-        <v>3.2160000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>13</v>
       </c>
@@ -5714,11 +5609,8 @@
       <c r="T76" s="72">
         <v>2</v>
       </c>
-      <c r="V76" s="40">
-        <v>2.2410000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>13</v>
       </c>
@@ -5780,11 +5672,8 @@
       <c r="T77" s="72">
         <v>2</v>
       </c>
-      <c r="V77" s="40">
-        <v>2.407</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>13</v>
       </c>
@@ -5844,11 +5733,8 @@
       <c r="T78" s="72">
         <v>2</v>
       </c>
-      <c r="V78" s="40">
-        <v>2.4670000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="46" t="s">
         <v>13</v>
       </c>
@@ -5908,11 +5794,8 @@
       <c r="T79" s="74">
         <v>2</v>
       </c>
-      <c r="V79" s="40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>15</v>
       </c>
@@ -5965,11 +5848,8 @@
       <c r="T80" s="64">
         <v>1</v>
       </c>
-      <c r="V80" s="12">
-        <v>3.4079999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>15</v>
       </c>
@@ -6018,11 +5898,8 @@
       <c r="T81" s="66">
         <v>1</v>
       </c>
-      <c r="V81" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>15</v>
       </c>
@@ -6071,11 +5948,8 @@
       <c r="T82" s="66">
         <v>1</v>
       </c>
-      <c r="V82" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>15</v>
       </c>
@@ -6124,11 +5998,8 @@
       <c r="T83" s="66">
         <v>1</v>
       </c>
-      <c r="V83" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>15</v>
       </c>
@@ -6179,11 +6050,8 @@
       <c r="T84" s="66">
         <v>1</v>
       </c>
-      <c r="V84" s="12">
-        <v>3.6379999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="22" t="s">
         <v>15</v>
       </c>
@@ -6236,11 +6104,8 @@
       <c r="T85" s="66">
         <v>1</v>
       </c>
-      <c r="V85" s="12">
-        <v>3.6019999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="22" t="s">
         <v>15</v>
       </c>
@@ -6291,11 +6156,8 @@
       <c r="T86" s="66">
         <v>1</v>
       </c>
-      <c r="V86" s="12">
-        <v>3.6579999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>15</v>
       </c>
@@ -6346,11 +6208,8 @@
       <c r="T87" s="66">
         <v>1</v>
       </c>
-      <c r="V87" s="12">
-        <v>3.5190000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
         <v>15</v>
       </c>
@@ -6401,11 +6260,8 @@
       <c r="T88" s="66">
         <v>1</v>
       </c>
-      <c r="V88" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>15</v>
       </c>
@@ -6456,11 +6312,8 @@
       <c r="T89" s="66">
         <v>1</v>
       </c>
-      <c r="V89" s="12">
-        <v>3.6160000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="22" t="s">
         <v>15</v>
       </c>
@@ -6513,11 +6366,8 @@
       <c r="T90" s="66">
         <v>1</v>
       </c>
-      <c r="V90" s="12">
-        <v>3.6030000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="22" t="s">
         <v>15</v>
       </c>
@@ -6568,11 +6418,8 @@
       <c r="T91" s="66">
         <v>1</v>
       </c>
-      <c r="V91" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
         <v>15</v>
       </c>
@@ -6623,11 +6470,8 @@
       <c r="T92" s="66">
         <v>1</v>
       </c>
-      <c r="V92" s="12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="22" t="s">
         <v>15</v>
       </c>
@@ -6678,11 +6522,8 @@
       <c r="T93" s="66">
         <v>1</v>
       </c>
-      <c r="V93" s="12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="22" t="s">
         <v>15</v>
       </c>
@@ -6733,11 +6574,8 @@
       <c r="T94" s="66">
         <v>1</v>
       </c>
-      <c r="V94" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
         <v>15</v>
       </c>
@@ -6790,11 +6628,8 @@
       <c r="T95" s="66">
         <v>1</v>
       </c>
-      <c r="V95" s="12">
-        <v>3.4079999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="22" t="s">
         <v>15</v>
       </c>
@@ -6854,11 +6689,8 @@
       <c r="T96" s="66">
         <v>1</v>
       </c>
-      <c r="V96" s="12">
-        <v>3.351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="22" t="s">
         <v>15</v>
       </c>
@@ -6912,11 +6744,8 @@
       <c r="T97" s="66">
         <v>1</v>
       </c>
-      <c r="V97" s="12">
-        <v>3.5830000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="22" t="s">
         <v>15</v>
       </c>
@@ -6976,11 +6805,8 @@
       <c r="T98" s="66">
         <v>1</v>
       </c>
-      <c r="V98" s="12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="22" t="s">
         <v>15</v>
       </c>
@@ -7031,11 +6857,8 @@
       <c r="T99" s="66">
         <v>1</v>
       </c>
-      <c r="V99" s="12">
-        <v>3.302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="22" t="s">
         <v>15</v>
       </c>
@@ -7097,11 +6920,8 @@
       <c r="T100" s="66">
         <v>1</v>
       </c>
-      <c r="V100" s="12">
-        <v>3.798</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="22" t="s">
         <v>15</v>
       </c>
@@ -7154,11 +6974,8 @@
       <c r="T101" s="66">
         <v>1</v>
       </c>
-      <c r="V101" s="12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="22" t="s">
         <v>15</v>
       </c>
@@ -7220,11 +7037,8 @@
       <c r="T102" s="66">
         <v>1</v>
       </c>
-      <c r="V102" s="12">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
         <v>15</v>
       </c>
@@ -7286,11 +7100,8 @@
       <c r="T103" s="66">
         <v>1</v>
       </c>
-      <c r="V103" s="12">
-        <v>3.5190000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="22" t="s">
         <v>15</v>
       </c>
@@ -7352,11 +7163,8 @@
       <c r="T104" s="66">
         <v>1</v>
       </c>
-      <c r="V104" s="12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="22" t="s">
         <v>15</v>
       </c>
@@ -7418,11 +7226,8 @@
       <c r="T105" s="66">
         <v>1</v>
       </c>
-      <c r="V105" s="12">
-        <v>3.6030000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
         <v>15</v>
       </c>
@@ -7484,11 +7289,8 @@
       <c r="T106" s="66">
         <v>1</v>
       </c>
-      <c r="V106" s="12">
-        <v>3.6659999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>15</v>
       </c>
@@ -7550,11 +7352,8 @@
       <c r="T107" s="66">
         <v>1</v>
       </c>
-      <c r="V107" s="12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="22" t="s">
         <v>15</v>
       </c>
@@ -7616,11 +7415,8 @@
       <c r="T108" s="66">
         <v>1</v>
       </c>
-      <c r="V108" s="12">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="22" t="s">
         <v>15</v>
       </c>
@@ -7682,11 +7478,8 @@
       <c r="T109" s="66">
         <v>1</v>
       </c>
-      <c r="V109" s="12">
-        <v>3.6160000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="22" t="s">
         <v>15</v>
       </c>
@@ -7748,11 +7541,8 @@
       <c r="T110" s="66">
         <v>1</v>
       </c>
-      <c r="V110" s="12">
-        <v>3.6419999999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="22" t="s">
         <v>15</v>
       </c>
@@ -7814,11 +7604,8 @@
       <c r="T111" s="66">
         <v>1</v>
       </c>
-      <c r="V111" s="12">
-        <v>3.4889999999999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="22" t="s">
         <v>15</v>
       </c>
@@ -7880,11 +7667,8 @@
       <c r="T112" s="66">
         <v>1</v>
       </c>
-      <c r="V112" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="22" t="s">
         <v>15</v>
       </c>
@@ -7946,11 +7730,8 @@
       <c r="T113" s="66">
         <v>1</v>
       </c>
-      <c r="V113" s="12">
-        <v>3.6379999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
         <v>15</v>
       </c>
@@ -8012,11 +7793,8 @@
       <c r="T114" s="66">
         <v>1</v>
       </c>
-      <c r="V114" s="12">
-        <v>3.6030000000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="22" t="s">
         <v>15</v>
       </c>
@@ -8078,11 +7856,8 @@
       <c r="T115" s="66">
         <v>1</v>
       </c>
-      <c r="V115" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
         <v>15</v>
       </c>
@@ -8144,11 +7919,8 @@
       <c r="T116" s="66">
         <v>1</v>
       </c>
-      <c r="V116" s="12">
-        <v>3.5579999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="22" t="s">
         <v>15</v>
       </c>
@@ -8208,11 +7980,8 @@
       <c r="T117" s="66">
         <v>1</v>
       </c>
-      <c r="V117" s="12">
-        <v>3.4079999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>15</v>
       </c>
@@ -8272,11 +8041,8 @@
       <c r="T118" s="68">
         <v>1</v>
       </c>
-      <c r="V118" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
         <v>17</v>
       </c>
@@ -8329,11 +8095,8 @@
       <c r="T119" s="70">
         <v>1</v>
       </c>
-      <c r="V119" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="41" t="s">
         <v>17</v>
       </c>
@@ -8382,11 +8145,8 @@
       <c r="T120" s="72">
         <v>1</v>
       </c>
-      <c r="V120" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="41" t="s">
         <v>17</v>
       </c>
@@ -8435,11 +8195,8 @@
       <c r="T121" s="72">
         <v>1</v>
       </c>
-      <c r="V121" s="40">
-        <v>3.262</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="41" t="s">
         <v>17</v>
       </c>
@@ -8488,11 +8245,8 @@
       <c r="T122" s="72">
         <v>1</v>
       </c>
-      <c r="V122" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="41" t="s">
         <v>17</v>
       </c>
@@ -8543,11 +8297,8 @@
       <c r="T123" s="72">
         <v>1</v>
       </c>
-      <c r="V123" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="41" t="s">
         <v>17</v>
       </c>
@@ -8600,11 +8351,8 @@
       <c r="T124" s="72">
         <v>1</v>
       </c>
-      <c r="V124" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="41" t="s">
         <v>17</v>
       </c>
@@ -8655,11 +8403,8 @@
       <c r="T125" s="72">
         <v>1</v>
       </c>
-      <c r="V125" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="41" t="s">
         <v>17</v>
       </c>
@@ -8710,11 +8455,8 @@
       <c r="T126" s="72">
         <v>1</v>
       </c>
-      <c r="V126" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="41" t="s">
         <v>17</v>
       </c>
@@ -8765,11 +8507,8 @@
       <c r="T127" s="72">
         <v>1</v>
       </c>
-      <c r="V127" s="40">
-        <v>3.5379999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="41" t="s">
         <v>17</v>
       </c>
@@ -8820,11 +8559,8 @@
       <c r="T128" s="72">
         <v>1</v>
       </c>
-      <c r="V128" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="41" t="s">
         <v>17</v>
       </c>
@@ -8877,11 +8613,8 @@
       <c r="T129" s="72">
         <v>1</v>
       </c>
-      <c r="V129" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="41" t="s">
         <v>17</v>
       </c>
@@ -8932,11 +8665,8 @@
       <c r="T130" s="72">
         <v>1</v>
       </c>
-      <c r="V130" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="41" t="s">
         <v>17</v>
       </c>
@@ -8987,11 +8717,8 @@
       <c r="T131" s="72">
         <v>1</v>
       </c>
-      <c r="V131" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="41" t="s">
         <v>17</v>
       </c>
@@ -9042,11 +8769,8 @@
       <c r="T132" s="72">
         <v>1</v>
       </c>
-      <c r="V132" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="41" t="s">
         <v>17</v>
       </c>
@@ -9097,11 +8821,8 @@
       <c r="T133" s="72">
         <v>1</v>
       </c>
-      <c r="V133" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="41" t="s">
         <v>17</v>
       </c>
@@ -9154,11 +8875,8 @@
       <c r="T134" s="72">
         <v>1</v>
       </c>
-      <c r="V134" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="41" t="s">
         <v>17</v>
       </c>
@@ -9218,11 +8936,8 @@
       <c r="T135" s="72">
         <v>1</v>
       </c>
-      <c r="V135" s="40">
-        <v>3.7290000000000001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="41" t="s">
         <v>17</v>
       </c>
@@ -9276,11 +8991,8 @@
       <c r="T136" s="72">
         <v>1</v>
       </c>
-      <c r="V136" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="41" t="s">
         <v>17</v>
       </c>
@@ -9340,11 +9052,8 @@
       <c r="T137" s="72">
         <v>1</v>
       </c>
-      <c r="V137" s="40">
-        <v>3.5379999999999998</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="41" t="s">
         <v>17</v>
       </c>
@@ -9395,11 +9104,8 @@
       <c r="T138" s="72">
         <v>1</v>
       </c>
-      <c r="V138" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="41" t="s">
         <v>17</v>
       </c>
@@ -9461,11 +9167,8 @@
       <c r="T139" s="72">
         <v>1</v>
       </c>
-      <c r="V139" s="40">
-        <v>3.5379999999999998</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="41" t="s">
         <v>17</v>
       </c>
@@ -9518,11 +9221,8 @@
       <c r="T140" s="72">
         <v>1</v>
       </c>
-      <c r="V140" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="41" t="s">
         <v>17</v>
       </c>
@@ -9584,11 +9284,8 @@
       <c r="T141" s="72">
         <v>1</v>
       </c>
-      <c r="V141" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="41" t="s">
         <v>17</v>
       </c>
@@ -9650,11 +9347,8 @@
       <c r="T142" s="72">
         <v>1</v>
       </c>
-      <c r="V142" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="41" t="s">
         <v>17</v>
       </c>
@@ -9716,11 +9410,8 @@
       <c r="T143" s="72">
         <v>1</v>
       </c>
-      <c r="V143" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="41" t="s">
         <v>17</v>
       </c>
@@ -9782,11 +9473,8 @@
       <c r="T144" s="72">
         <v>1</v>
       </c>
-      <c r="V144" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="41" t="s">
         <v>17</v>
       </c>
@@ -9848,11 +9536,8 @@
       <c r="T145" s="72">
         <v>1</v>
       </c>
-      <c r="V145" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="41" t="s">
         <v>17</v>
       </c>
@@ -9914,11 +9599,8 @@
       <c r="T146" s="72">
         <v>1</v>
       </c>
-      <c r="V146" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="41" t="s">
         <v>17</v>
       </c>
@@ -9980,11 +9662,8 @@
       <c r="T147" s="72">
         <v>1</v>
       </c>
-      <c r="V147" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="41" t="s">
         <v>17</v>
       </c>
@@ -10046,11 +9725,8 @@
       <c r="T148" s="72">
         <v>1</v>
       </c>
-      <c r="V148" s="40">
-        <v>3.512</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="41" t="s">
         <v>17</v>
       </c>
@@ -10112,11 +9788,8 @@
       <c r="T149" s="72">
         <v>1</v>
       </c>
-      <c r="V149" s="40">
-        <v>3.5379999999999998</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="41" t="s">
         <v>17</v>
       </c>
@@ -10178,11 +9851,8 @@
       <c r="T150" s="72">
         <v>1</v>
       </c>
-      <c r="V150" s="40">
-        <v>3.7450000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="41" t="s">
         <v>17</v>
       </c>
@@ -10244,11 +9914,8 @@
       <c r="T151" s="72">
         <v>1</v>
       </c>
-      <c r="V151" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="41" t="s">
         <v>17</v>
       </c>
@@ -10310,11 +9977,8 @@
       <c r="T152" s="72">
         <v>1</v>
       </c>
-      <c r="V152" s="40">
-        <v>3.5379999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="41" t="s">
         <v>17</v>
       </c>
@@ -10376,11 +10040,8 @@
       <c r="T153" s="72">
         <v>1</v>
       </c>
-      <c r="V153" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="41" t="s">
         <v>17</v>
       </c>
@@ -10442,11 +10103,8 @@
       <c r="T154" s="72">
         <v>1</v>
       </c>
-      <c r="V154" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="41" t="s">
         <v>17</v>
       </c>
@@ -10508,11 +10166,8 @@
       <c r="T155" s="72">
         <v>1</v>
       </c>
-      <c r="V155" s="40">
-        <v>3.5379999999999998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="41" t="s">
         <v>17</v>
       </c>
@@ -10572,11 +10227,8 @@
       <c r="T156" s="72">
         <v>1</v>
       </c>
-      <c r="V156" s="40">
-        <v>3.5270000000000001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="46" t="s">
         <v>17</v>
       </c>
@@ -10636,11 +10288,8 @@
       <c r="T157" s="74">
         <v>1</v>
       </c>
-      <c r="V157" s="40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="19" t="s">
         <v>19</v>
       </c>
@@ -10693,11 +10342,8 @@
       <c r="T158" s="64">
         <v>1</v>
       </c>
-      <c r="V158" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="22" t="s">
         <v>19</v>
       </c>
@@ -10746,11 +10392,8 @@
       <c r="T159" s="66">
         <v>1</v>
       </c>
-      <c r="V159" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
         <v>19</v>
       </c>
@@ -10799,11 +10442,8 @@
       <c r="T160" s="66">
         <v>1</v>
       </c>
-      <c r="V160" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
         <v>19</v>
       </c>
@@ -10852,11 +10492,8 @@
       <c r="T161" s="66">
         <v>1</v>
       </c>
-      <c r="V161" s="12">
-        <v>2.8860000000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="22" t="s">
         <v>19</v>
       </c>
@@ -10907,11 +10544,8 @@
       <c r="T162" s="66">
         <v>1</v>
       </c>
-      <c r="V162" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="22" t="s">
         <v>19</v>
       </c>
@@ -10964,11 +10598,8 @@
       <c r="T163" s="66">
         <v>1</v>
       </c>
-      <c r="V163" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="22" t="s">
         <v>19</v>
       </c>
@@ -11019,11 +10650,8 @@
       <c r="T164" s="66">
         <v>1</v>
       </c>
-      <c r="V164" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="22" t="s">
         <v>19</v>
       </c>
@@ -11074,11 +10702,8 @@
       <c r="T165" s="66">
         <v>1</v>
       </c>
-      <c r="V165" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="22" t="s">
         <v>19</v>
       </c>
@@ -11129,11 +10754,8 @@
       <c r="T166" s="66">
         <v>1</v>
       </c>
-      <c r="V166" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="22" t="s">
         <v>19</v>
       </c>
@@ -11184,11 +10806,8 @@
       <c r="T167" s="66">
         <v>1</v>
       </c>
-      <c r="V167" s="12">
-        <v>3.5019999999999998</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="22" t="s">
         <v>19</v>
       </c>
@@ -11241,11 +10860,8 @@
       <c r="T168" s="66">
         <v>1</v>
       </c>
-      <c r="V168" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="22" t="s">
         <v>19</v>
       </c>
@@ -11296,11 +10912,8 @@
       <c r="T169" s="66">
         <v>1</v>
       </c>
-      <c r="V169" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="22" t="s">
         <v>19</v>
       </c>
@@ -11351,11 +10964,8 @@
       <c r="T170" s="66">
         <v>1</v>
       </c>
-      <c r="V170" s="12">
-        <v>2.8860000000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="22" t="s">
         <v>19</v>
       </c>
@@ -11406,11 +11016,8 @@
       <c r="T171" s="66">
         <v>1</v>
       </c>
-      <c r="V171" s="12">
-        <v>2.9569999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="22" t="s">
         <v>19</v>
       </c>
@@ -11461,11 +11068,8 @@
       <c r="T172" s="66">
         <v>1</v>
       </c>
-      <c r="V172" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="22" t="s">
         <v>19</v>
       </c>
@@ -11518,11 +11122,8 @@
       <c r="T173" s="66">
         <v>1</v>
       </c>
-      <c r="V173" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="22" t="s">
         <v>19</v>
       </c>
@@ -11582,11 +11183,8 @@
       <c r="T174" s="66">
         <v>2</v>
       </c>
-      <c r="V174" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="22" t="s">
         <v>19</v>
       </c>
@@ -11640,11 +11238,8 @@
       <c r="T175" s="66">
         <v>2</v>
       </c>
-      <c r="V175" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
         <v>19</v>
       </c>
@@ -11704,11 +11299,8 @@
       <c r="T176" s="66">
         <v>2</v>
       </c>
-      <c r="V176" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="22" t="s">
         <v>19</v>
       </c>
@@ -11759,11 +11351,8 @@
       <c r="T177" s="66">
         <v>2</v>
       </c>
-      <c r="V177" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="22" t="s">
         <v>19</v>
       </c>
@@ -11825,11 +11414,8 @@
       <c r="T178" s="66">
         <v>2</v>
       </c>
-      <c r="V178" s="12">
-        <v>3.7389999999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="22" t="s">
         <v>19</v>
       </c>
@@ -11882,11 +11468,8 @@
       <c r="T179" s="66">
         <v>2</v>
       </c>
-      <c r="V179" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
         <v>19</v>
       </c>
@@ -11948,11 +11531,8 @@
       <c r="T180" s="66">
         <v>1</v>
       </c>
-      <c r="V180" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="22" t="s">
         <v>19</v>
       </c>
@@ -12014,11 +11594,8 @@
       <c r="T181" s="66">
         <v>1</v>
       </c>
-      <c r="V181" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="22" t="s">
         <v>19</v>
       </c>
@@ -12080,11 +11657,8 @@
       <c r="T182" s="66">
         <v>1</v>
       </c>
-      <c r="V182" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="22" t="s">
         <v>19</v>
       </c>
@@ -12146,11 +11720,8 @@
       <c r="T183" s="66">
         <v>1</v>
       </c>
-      <c r="V183" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="22" t="s">
         <v>19</v>
       </c>
@@ -12212,11 +11783,8 @@
       <c r="T184" s="66">
         <v>1</v>
       </c>
-      <c r="V184" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="22" t="s">
         <v>19</v>
       </c>
@@ -12278,11 +11846,8 @@
       <c r="T185" s="66">
         <v>1</v>
       </c>
-      <c r="V185" s="12">
-        <v>3.5019999999999998</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="22" t="s">
         <v>19</v>
       </c>
@@ -12344,11 +11909,8 @@
       <c r="T186" s="66">
         <v>1</v>
       </c>
-      <c r="V186" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="22" t="s">
         <v>19</v>
       </c>
@@ -12410,11 +11972,8 @@
       <c r="T187" s="66">
         <v>1</v>
       </c>
-      <c r="V187" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="22" t="s">
         <v>19</v>
       </c>
@@ -12476,11 +12035,8 @@
       <c r="T188" s="66">
         <v>1</v>
       </c>
-      <c r="V188" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
         <v>19</v>
       </c>
@@ -12542,11 +12098,8 @@
       <c r="T189" s="66">
         <v>1</v>
       </c>
-      <c r="V189" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="22" t="s">
         <v>19</v>
       </c>
@@ -12608,11 +12161,8 @@
       <c r="T190" s="66">
         <v>1</v>
       </c>
-      <c r="V190" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="22" t="s">
         <v>19</v>
       </c>
@@ -12674,11 +12224,8 @@
       <c r="T191" s="66">
         <v>1</v>
       </c>
-      <c r="V191" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="22" t="s">
         <v>19</v>
       </c>
@@ -12740,11 +12287,8 @@
       <c r="T192" s="66">
         <v>1</v>
       </c>
-      <c r="V192" s="12">
-        <v>3.8519999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="22" t="s">
         <v>19</v>
       </c>
@@ -12806,11 +12350,8 @@
       <c r="T193" s="66">
         <v>1</v>
       </c>
-      <c r="V193" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="22" t="s">
         <v>19</v>
       </c>
@@ -12872,11 +12413,8 @@
       <c r="T194" s="66">
         <v>1</v>
       </c>
-      <c r="V194" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="22" t="s">
         <v>19</v>
       </c>
@@ -12936,11 +12474,8 @@
       <c r="T195" s="66">
         <v>1</v>
       </c>
-      <c r="V195" s="12">
-        <v>3.9180000000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="26" t="s">
         <v>19</v>
       </c>
@@ -13000,11 +12535,8 @@
       <c r="T196" s="68">
         <v>1</v>
       </c>
-      <c r="V196" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="36" t="s">
         <v>21</v>
       </c>
@@ -13057,11 +12589,8 @@
       <c r="T197" s="70">
         <v>5</v>
       </c>
-      <c r="V197" s="40">
-        <v>1.673</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="41" t="s">
         <v>21</v>
       </c>
@@ -13110,11 +12639,8 @@
       <c r="T198" s="72">
         <v>4</v>
       </c>
-      <c r="V198" s="40">
-        <v>3.1219999999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="41" t="s">
         <v>21</v>
       </c>
@@ -13163,11 +12689,8 @@
       <c r="T199" s="72">
         <v>3.6666666666666665</v>
       </c>
-      <c r="V199" s="40">
-        <v>3.1040000000000001</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="41" t="s">
         <v>21</v>
       </c>
@@ -13216,11 +12739,8 @@
       <c r="T200" s="72">
         <v>3</v>
       </c>
-      <c r="V200" s="40">
-        <v>0.89300000000000002</v>
-      </c>
-    </row>
-    <row r="201" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="41" t="s">
         <v>21</v>
       </c>
@@ -13271,11 +12791,8 @@
       <c r="T201" s="72">
         <v>3</v>
       </c>
-      <c r="V201" s="40">
-        <v>3.1040000000000001</v>
-      </c>
-    </row>
-    <row r="202" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="41" t="s">
         <v>21</v>
       </c>
@@ -13328,11 +12845,8 @@
       <c r="T202" s="72">
         <v>3</v>
       </c>
-      <c r="V202" s="40">
-        <v>1.8640000000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="41" t="s">
         <v>21</v>
       </c>
@@ -13383,11 +12897,8 @@
       <c r="T203" s="72">
         <v>3</v>
       </c>
-      <c r="V203" s="40">
-        <v>2.8860000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="41" t="s">
         <v>21</v>
       </c>
@@ -13438,11 +12949,8 @@
       <c r="T204" s="72">
         <v>3</v>
       </c>
-      <c r="V204" s="40">
-        <v>3.1040000000000001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="41" t="s">
         <v>21</v>
       </c>
@@ -13493,11 +13001,8 @@
       <c r="T205" s="72">
         <v>3</v>
       </c>
-      <c r="V205" s="40">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="206" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="41" t="s">
         <v>21</v>
       </c>
@@ -13548,11 +13053,8 @@
       <c r="T206" s="72">
         <v>3</v>
       </c>
-      <c r="V206" s="40">
-        <v>1.8640000000000001</v>
-      </c>
-    </row>
-    <row r="207" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="41" t="s">
         <v>21</v>
       </c>
@@ -13605,11 +13107,8 @@
       <c r="T207" s="72">
         <v>3</v>
       </c>
-      <c r="V207" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="208" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="41" t="s">
         <v>21</v>
       </c>
@@ -13660,11 +13159,8 @@
       <c r="T208" s="72">
         <v>3</v>
       </c>
-      <c r="V208" s="40">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="41" t="s">
         <v>21</v>
       </c>
@@ -13715,11 +13211,8 @@
       <c r="T209" s="72">
         <v>3</v>
       </c>
-      <c r="V209" s="40">
-        <v>2.5049999999999999</v>
-      </c>
-    </row>
-    <row r="210" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="41" t="s">
         <v>21</v>
       </c>
@@ -13770,11 +13263,8 @@
       <c r="T210" s="72">
         <v>3</v>
       </c>
-      <c r="V210" s="40">
-        <v>0.82599999999999996</v>
-      </c>
-    </row>
-    <row r="211" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="41" t="s">
         <v>21</v>
       </c>
@@ -13825,11 +13315,8 @@
       <c r="T211" s="72">
         <v>3</v>
       </c>
-      <c r="V211" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="212" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="41" t="s">
         <v>21</v>
       </c>
@@ -13882,11 +13369,8 @@
       <c r="T212" s="72">
         <v>4</v>
       </c>
-      <c r="V212" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="213" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="41" t="s">
         <v>21</v>
       </c>
@@ -13946,11 +13430,8 @@
       <c r="T213" s="72">
         <v>3</v>
       </c>
-      <c r="V213" s="40">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="214" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="41" t="s">
         <v>21</v>
       </c>
@@ -14004,11 +13485,8 @@
       <c r="T214" s="72">
         <v>3</v>
       </c>
-      <c r="V214" s="40">
-        <v>2.2480000000000002</v>
-      </c>
-    </row>
-    <row r="215" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="41" t="s">
         <v>21</v>
       </c>
@@ -14068,11 +13546,8 @@
       <c r="T215" s="72">
         <v>3</v>
       </c>
-      <c r="V215" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="216" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="41" t="s">
         <v>21</v>
       </c>
@@ -14123,11 +13598,8 @@
       <c r="T216" s="72">
         <v>3</v>
       </c>
-      <c r="V216" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="217" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="41" t="s">
         <v>21</v>
       </c>
@@ -14189,11 +13661,8 @@
       <c r="T217" s="72">
         <v>3</v>
       </c>
-      <c r="V217" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="218" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="41" t="s">
         <v>21</v>
       </c>
@@ -14246,11 +13715,8 @@
       <c r="T218" s="72">
         <v>3</v>
       </c>
-      <c r="V218" s="40">
-        <v>1.673</v>
-      </c>
-    </row>
-    <row r="219" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="41" t="s">
         <v>21</v>
       </c>
@@ -14312,11 +13778,8 @@
       <c r="T219" s="72">
         <v>3</v>
       </c>
-      <c r="V219" s="40">
-        <v>1.4179999999999999</v>
-      </c>
-    </row>
-    <row r="220" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="41" t="s">
         <v>21</v>
       </c>
@@ -14378,11 +13841,8 @@
       <c r="T220" s="72">
         <v>3</v>
       </c>
-      <c r="V220" s="40">
-        <v>2.1150000000000002</v>
-      </c>
-    </row>
-    <row r="221" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="41" t="s">
         <v>21</v>
       </c>
@@ -14444,11 +13904,8 @@
       <c r="T221" s="72">
         <v>3</v>
       </c>
-      <c r="V221" s="40">
-        <v>1.1659999999999999</v>
-      </c>
-    </row>
-    <row r="222" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="41" t="s">
         <v>21</v>
       </c>
@@ -14510,11 +13967,8 @@
       <c r="T222" s="72">
         <v>3</v>
       </c>
-      <c r="V222" s="40">
-        <v>2.2679999999999998</v>
-      </c>
-    </row>
-    <row r="223" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="41" t="s">
         <v>21</v>
       </c>
@@ -14576,11 +14030,8 @@
       <c r="T223" s="72">
         <v>3</v>
       </c>
-      <c r="V223" s="40">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="224" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="41" t="s">
         <v>21</v>
       </c>
@@ -14642,11 +14093,8 @@
       <c r="T224" s="72">
         <v>3</v>
       </c>
-      <c r="V224" s="40">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="225" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="41" t="s">
         <v>21</v>
       </c>
@@ -14708,11 +14156,8 @@
       <c r="T225" s="72">
         <v>3</v>
       </c>
-      <c r="V225" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="226" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="41" t="s">
         <v>21</v>
       </c>
@@ -14774,11 +14219,8 @@
       <c r="T226" s="72">
         <v>3</v>
       </c>
-      <c r="V226" s="40">
-        <v>2.5470000000000002</v>
-      </c>
-    </row>
-    <row r="227" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="41" t="s">
         <v>21</v>
       </c>
@@ -14840,11 +14282,8 @@
       <c r="T227" s="72">
         <v>3</v>
       </c>
-      <c r="V227" s="40">
-        <v>1.4179999999999999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="41" t="s">
         <v>21</v>
       </c>
@@ -14906,11 +14345,8 @@
       <c r="T228" s="72">
         <v>3</v>
       </c>
-      <c r="V228" s="40">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="229" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="41" t="s">
         <v>21</v>
       </c>
@@ -14972,11 +14408,8 @@
       <c r="T229" s="72">
         <v>3</v>
       </c>
-      <c r="V229" s="40">
-        <v>1.8640000000000001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="41" t="s">
         <v>21</v>
       </c>
@@ -15038,11 +14471,8 @@
       <c r="T230" s="72">
         <v>3</v>
       </c>
-      <c r="V230" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="41" t="s">
         <v>21</v>
       </c>
@@ -15104,11 +14534,8 @@
       <c r="T231" s="72">
         <v>3</v>
       </c>
-      <c r="V231" s="40">
-        <v>1.6419999999999999</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="41" t="s">
         <v>21</v>
       </c>
@@ -15170,11 +14597,8 @@
       <c r="T232" s="72">
         <v>3</v>
       </c>
-      <c r="V232" s="40">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="233" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="41" t="s">
         <v>21</v>
       </c>
@@ -15236,11 +14660,8 @@
       <c r="T233" s="72">
         <v>3</v>
       </c>
-      <c r="V233" s="40">
-        <v>3.1040000000000001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="41" t="s">
         <v>21</v>
       </c>
@@ -15300,11 +14721,8 @@
       <c r="T234" s="72">
         <v>3</v>
       </c>
-      <c r="V234" s="40">
-        <v>2.8530000000000002</v>
-      </c>
-    </row>
-    <row r="235" spans="1:22" s="40" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:20" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="46" t="s">
         <v>21</v>
       </c>
@@ -15364,11 +14782,8 @@
       <c r="T235" s="74">
         <v>3</v>
       </c>
-      <c r="V235" s="40">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="19" t="s">
         <v>23</v>
       </c>
@@ -15422,7 +14837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="22" t="s">
         <v>23</v>
       </c>
@@ -15472,7 +14887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="22" t="s">
         <v>23</v>
       </c>
@@ -15522,7 +14937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="22" t="s">
         <v>23</v>
       </c>
@@ -15572,7 +14987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="22" t="s">
         <v>23</v>
       </c>
